--- a/Desktop/MYSARAH/DIGESTION/MUKA DEPAN OREN/Muka depan Digest Oren POW 250924.xlsx
+++ b/Desktop/MYSARAH/DIGESTION/MUKA DEPAN OREN/Muka depan Digest Oren POW 250924.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20339"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.41.163.98\Users\Gunasama\Documents\DIYANA\DIGESTION\MUKA DEPAN OREN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\MYSARAH\DIGESTION\MUKA DEPAN OREN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E54156-7183-4C15-BB4A-25E1524E166D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D7C86B-6008-4507-BD30-1636C2A79266}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24D087FB-E197-4E74-8D17-1CFCDDC43342}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" xr2:uid="{24D087FB-E197-4E74-8D17-1CFCDDC43342}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Tarikh:</t>
   </si>
@@ -83,37 +72,31 @@
     <t xml:space="preserve">               </t>
   </si>
   <si>
-    <t>1) NORDIYANA</t>
-  </si>
-  <si>
     <t>Gerhadt : NA</t>
   </si>
   <si>
-    <t>1) 2024080259 AR Cd</t>
-  </si>
-  <si>
-    <t>2) 2024080259 BR Cd</t>
-  </si>
-  <si>
-    <t>3) 2024080259 CR Cd</t>
-  </si>
-  <si>
-    <t>4)2024090034</t>
-  </si>
-  <si>
-    <t>25/9/2024</t>
-  </si>
-  <si>
     <t>2)IQBAL</t>
   </si>
   <si>
-    <t>RB POW 250924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   IQC POW 250924</t>
-  </si>
-  <si>
     <t>Titan: T1</t>
+  </si>
+  <si>
+    <t>1) MAISARAH</t>
+  </si>
+  <si>
+    <t>RB POW 071124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   IQC POW 071124</t>
+  </si>
+  <si>
+    <t>1)2024100198</t>
+  </si>
+  <si>
+    <t>2) 2024100200</t>
+  </si>
+  <si>
+    <t>3) 2024100204</t>
   </si>
 </sst>
 </file>
@@ -241,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -267,6 +250,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -275,24 +273,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -371,74 +351,13 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Right Brace 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F509285-86F6-433B-9E66-034399E0730B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2371724" y="3590924"/>
-          <a:ext cx="228601" cy="542925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 8333"/>
-            <a:gd name="adj2" fmla="val 51081"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-MY" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -476,7 +395,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -582,7 +501,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -724,7 +643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -732,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB43003-0846-4FB8-952D-AD8751D5405A}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,10 +674,10 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="11"/>
+      <c r="B1" s="16">
+        <v>45603</v>
+      </c>
+      <c r="C1" s="16"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -781,7 +700,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -793,7 +712,7 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -817,11 +736,11 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -851,11 +770,11 @@
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
         <v>7</v>
@@ -905,11 +824,11 @@
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="3"/>
       <c r="F13" s="5" t="s">
         <v>11</v>
@@ -950,274 +869,155 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="17" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="18"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
+      <c r="A18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="11">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17">
-        <v>1</v>
-      </c>
-      <c r="E19" s="18"/>
+      <c r="A19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="11">
+        <v>2</v>
+      </c>
+      <c r="E19" s="12"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
+      <c r="A20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="11">
+        <v>3</v>
+      </c>
+      <c r="E20" s="12"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17">
-        <v>2</v>
-      </c>
-      <c r="E21" s="18"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="18"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A28:C28"/>
+  <mergeCells count="27">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B13:D13"/>
@@ -1234,6 +1034,17 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
